--- a/data/trans_dic/P36B06_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,47; 83,56</t>
+          <t>76,31; 84,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,47; 87,81</t>
+          <t>80,49; 87,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,8; 86,41</t>
+          <t>78,59; 86,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,29; 87,94</t>
+          <t>79,55; 88,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,26; 94,18</t>
+          <t>86,92; 94,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>81,51; 89,08</t>
+          <t>81,16; 88,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,04; 84,82</t>
+          <t>79,0; 84,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>84,33; 89,58</t>
+          <t>84,67; 89,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>80,74; 86,76</t>
+          <t>81,27; 86,64</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,32; 82,89</t>
+          <t>74,34; 83,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,68; 89,08</t>
+          <t>81,41; 88,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,87; 87,62</t>
+          <t>80,14; 87,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,21; 82,03</t>
+          <t>73,54; 81,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,33; 90,78</t>
+          <t>83,1; 90,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,92; 85,38</t>
+          <t>77,25; 85,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,32; 81,28</t>
+          <t>75,12; 81,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,43; 88,57</t>
+          <t>83,49; 89,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>80,2; 85,63</t>
+          <t>79,94; 85,81</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>72,84; 80,2</t>
+          <t>72,4; 79,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,14; 85,25</t>
+          <t>78,97; 85,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,05; 82,39</t>
+          <t>74,96; 82,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74,69; 87,39</t>
+          <t>74,74; 87,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,72; 89,92</t>
+          <t>81,28; 89,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,91; 89,69</t>
+          <t>79,0; 90,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,39; 80,64</t>
+          <t>74,66; 80,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,85; 85,9</t>
+          <t>80,34; 85,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>77,11; 83,3</t>
+          <t>76,84; 83,22</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,91; 79,75</t>
+          <t>75,0; 79,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,91; 88,13</t>
+          <t>84,0; 88,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,9; 82,77</t>
+          <t>78,08; 83,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>78,28; 84,27</t>
+          <t>78,34; 84,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,98; 88,18</t>
+          <t>82,64; 88,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,62; 81,29</t>
+          <t>75,72; 81,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,83; 80,46</t>
+          <t>76,69; 80,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,19; 87,43</t>
+          <t>84,47; 87,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77,87; 81,54</t>
+          <t>77,92; 81,69</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,36; 75,01</t>
+          <t>65,86; 75,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,5; 84,39</t>
+          <t>77,89; 84,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,61; 83,2</t>
+          <t>76,46; 83,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,57; 83,22</t>
+          <t>76,63; 83,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,82; 90,02</t>
+          <t>85,09; 89,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,51; 87,93</t>
+          <t>82,6; 87,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,28; 79,12</t>
+          <t>73,23; 79,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82,85; 86,91</t>
+          <t>82,81; 86,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,8; 85,04</t>
+          <t>80,7; 84,86</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>62,83; 73,55</t>
+          <t>62,93; 73,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>67,49; 78,11</t>
+          <t>67,37; 78,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>64,26; 75,12</t>
+          <t>64,71; 75,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>80,73; 84,86</t>
+          <t>80,97; 84,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>86,83; 90,79</t>
+          <t>87,15; 90,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,91; 87,31</t>
+          <t>82,85; 87,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>78,22; 82,04</t>
+          <t>78,03; 82,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>84,0; 87,85</t>
+          <t>83,96; 87,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>80,0; 84,06</t>
+          <t>80,07; 84,09</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,57; 77,68</t>
+          <t>74,65; 77,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,09; 84,74</t>
+          <t>82,14; 84,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,72; 81,38</t>
+          <t>78,6; 81,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80,28; 82,88</t>
+          <t>80,3; 83,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>86,55; 88,86</t>
+          <t>86,55; 88,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,8; 84,61</t>
+          <t>82,02; 84,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,92; 79,92</t>
+          <t>77,91; 79,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>84,69; 86,44</t>
+          <t>84,81; 86,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>80,71; 82,65</t>
+          <t>80,81; 82,67</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>379969</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>369806</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>355273</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>258815</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>285517</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>296686</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>638785</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>655322</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>651959</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>361530; 397985</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>351925; 384050</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>337240; 369896</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>243974; 270189</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>272369; 294659</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>281667; 308672</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>616539; 660208</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>635480; 671428</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>630801; 672482</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>288586</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>358220</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>316997</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>290077</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>292792</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>301495</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>578664</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>651012</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>618492</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>272118; 303956</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>340098; 371256</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>301580; 329274</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>273456; 304408</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>279182; 303743</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>285467; 316804</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>554316; 599105</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>629290; 670856</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>596227; 640040</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>415811</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>517299</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>409407</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>136499</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>223638</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>141321</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>552309</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>740938</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>550728</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>392714; 433054</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>497031; 535835</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>389122; 427310</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>125400; 146089</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>211421; 234068</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>131234; 149678</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>530224; 573781</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>714658; 763029</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>526505; 570253</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1512</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1520</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>956676</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>996829</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>925430</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>580314</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>655045</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>648918</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1536990</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1651874</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1574348</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>928001; 989408</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>971948; 1022320</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>895970; 954165</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>559588; 601116</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>631939; 673583</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>624588; 672983</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1496718; 1573152</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1623261; 1684118</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1536931; 1611309</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>246018</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>412702</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>497713</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>455068</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>667102</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>628701</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>701086</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1079804</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1126414</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>230865; 264047</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>396120; 429749</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>474568; 516327</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>435008; 472025</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>647947; 684006</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>608874; 646111</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>672397; 725452</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1051752; 1101587</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1095825; 1152236</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1229</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>202539</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>195495</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>200829</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1035663</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>985512</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>921691</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1238201</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1181008</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1122520</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>187005; 217377</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>179795; 208641</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>185160; 216777</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1010301; 1059043</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>964800; 1004937</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>895653; 943458</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1205494; 1267002</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1153553; 1206366</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1094670; 1149620</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2440</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2656</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2593</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2683</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2884</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2755</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5123</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5540</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5348</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2489600</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2850351</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2705649</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2756436</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3109607</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2938813</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5246035</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5959958</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5644461</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2439055; 2539462</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2806520; 2894389</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2655876; 2752146</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2711090; 2803628</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3066309; 3147187</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2891807; 2983797</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5175696; 5312330</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5902771; 6022539</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5579892; 5708220</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36B06_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
